--- a/CETC/ExcelFile/device_info_machine.xlsx
+++ b/CETC/ExcelFile/device_info_machine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="42">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,133 @@
   <si>
     <t>LocationY</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
   </si>
 </sst>
 </file>
@@ -81,8 +208,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -386,16 +516,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130:E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="11.125" customWidth="1"/>
   </cols>
@@ -404,10 +534,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -421,11 +551,11 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>101</v>
-      </c>
-      <c r="C2">
-        <v>101</v>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D2">
         <v>550</v>
@@ -438,11 +568,11 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>101</v>
-      </c>
-      <c r="C3">
-        <v>105</v>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D3">
         <v>550</v>
@@ -455,22 +585,2165 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>1198</v>
+      </c>
+      <c r="E4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5">
+        <v>1198</v>
+      </c>
+      <c r="E5">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>550</v>
+      </c>
+      <c r="E6">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>550</v>
+      </c>
+      <c r="E7">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>1198</v>
+      </c>
+      <c r="E8">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>1198</v>
+      </c>
+      <c r="E9">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>550</v>
+      </c>
+      <c r="E10">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>550</v>
+      </c>
+      <c r="E11">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>1198</v>
+      </c>
+      <c r="E12">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13">
+        <v>1198</v>
+      </c>
+      <c r="E13">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>550</v>
+      </c>
+      <c r="E14">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>550</v>
+      </c>
+      <c r="E15">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>1198</v>
+      </c>
+      <c r="E16">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>1198</v>
+      </c>
+      <c r="E17">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>550</v>
+      </c>
+      <c r="E18">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>550</v>
+      </c>
+      <c r="E19">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>1198</v>
+      </c>
+      <c r="E20">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>1198</v>
+      </c>
+      <c r="E21">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>550</v>
+      </c>
+      <c r="E22">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>550</v>
+      </c>
+      <c r="E23">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>1198</v>
+      </c>
+      <c r="E24">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>1198</v>
+      </c>
+      <c r="E25">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>550</v>
+      </c>
+      <c r="E26">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>550</v>
+      </c>
+      <c r="E27">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>1198</v>
+      </c>
+      <c r="E28">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>1198</v>
+      </c>
+      <c r="E29">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>550</v>
+      </c>
+      <c r="E30">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>550</v>
+      </c>
+      <c r="E31">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>1198</v>
+      </c>
+      <c r="E32">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>1198</v>
+      </c>
+      <c r="E33">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>550</v>
+      </c>
+      <c r="E34">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>550</v>
+      </c>
+      <c r="E35">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36">
+        <v>1198</v>
+      </c>
+      <c r="E36">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37">
+        <v>1198</v>
+      </c>
+      <c r="E37">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38">
+        <v>550</v>
+      </c>
+      <c r="E38">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <v>550</v>
+      </c>
+      <c r="E39">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40">
+        <v>1198</v>
+      </c>
+      <c r="E40">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>1198</v>
+      </c>
+      <c r="E41">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>550</v>
+      </c>
+      <c r="E42">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>550</v>
+      </c>
+      <c r="E43">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>1198</v>
+      </c>
+      <c r="E44">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45">
+        <v>1198</v>
+      </c>
+      <c r="E45">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>550</v>
+      </c>
+      <c r="E46">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47">
+        <v>550</v>
+      </c>
+      <c r="E47">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48">
+        <v>1198</v>
+      </c>
+      <c r="E48">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49">
+        <v>1198</v>
+      </c>
+      <c r="E49">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>550</v>
+      </c>
+      <c r="E50">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>550</v>
+      </c>
+      <c r="E51">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>1198</v>
+      </c>
+      <c r="E52">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53">
+        <v>1198</v>
+      </c>
+      <c r="E53">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54">
+        <v>550</v>
+      </c>
+      <c r="E54">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55">
+        <v>550</v>
+      </c>
+      <c r="E55">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>1198</v>
+      </c>
+      <c r="E56">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57">
+        <v>1198</v>
+      </c>
+      <c r="E57">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58">
+        <v>550</v>
+      </c>
+      <c r="E58">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <v>550</v>
+      </c>
+      <c r="E59">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60">
+        <v>1198</v>
+      </c>
+      <c r="E60">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61">
+        <v>1198</v>
+      </c>
+      <c r="E61">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62">
+        <v>550</v>
+      </c>
+      <c r="E62">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63">
+        <v>550</v>
+      </c>
+      <c r="E63">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64">
+        <v>1198</v>
+      </c>
+      <c r="E64">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65">
+        <v>1198</v>
+      </c>
+      <c r="E65">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66">
+        <v>550</v>
+      </c>
+      <c r="E66">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67">
+        <v>550</v>
+      </c>
+      <c r="E67">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68">
+        <v>1198</v>
+      </c>
+      <c r="E68">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69">
+        <v>1198</v>
+      </c>
+      <c r="E69">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70">
+        <v>550</v>
+      </c>
+      <c r="E70">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71">
+        <v>550</v>
+      </c>
+      <c r="E71">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72">
+        <v>1198</v>
+      </c>
+      <c r="E72">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73">
+        <v>1198</v>
+      </c>
+      <c r="E73">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74">
+        <v>550</v>
+      </c>
+      <c r="E74">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75">
+        <v>550</v>
+      </c>
+      <c r="E75">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76">
+        <v>1198</v>
+      </c>
+      <c r="E76">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77">
+        <v>1198</v>
+      </c>
+      <c r="E77">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78">
+        <v>550</v>
+      </c>
+      <c r="E78">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79">
+        <v>550</v>
+      </c>
+      <c r="E79">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80">
+        <v>1198</v>
+      </c>
+      <c r="E80">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81">
+        <v>1198</v>
+      </c>
+      <c r="E81">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82">
+        <v>550</v>
+      </c>
+      <c r="E82">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83">
+        <v>550</v>
+      </c>
+      <c r="E83">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84">
+        <v>1198</v>
+      </c>
+      <c r="E84">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85">
+        <v>1198</v>
+      </c>
+      <c r="E85">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86">
+        <v>550</v>
+      </c>
+      <c r="E86">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87">
+        <v>550</v>
+      </c>
+      <c r="E87">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88">
+        <v>1198</v>
+      </c>
+      <c r="E88">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89">
+        <v>1198</v>
+      </c>
+      <c r="E89">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90">
+        <v>550</v>
+      </c>
+      <c r="E90">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91">
+        <v>550</v>
+      </c>
+      <c r="E91">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92">
+        <v>1198</v>
+      </c>
+      <c r="E92">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93">
+        <v>1198</v>
+      </c>
+      <c r="E93">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94">
+        <v>550</v>
+      </c>
+      <c r="E94">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95">
+        <v>550</v>
+      </c>
+      <c r="E95">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96">
+        <v>1198</v>
+      </c>
+      <c r="E96">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97">
+        <v>1198</v>
+      </c>
+      <c r="E97">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98">
+        <v>550</v>
+      </c>
+      <c r="E98">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99">
+        <v>550</v>
+      </c>
+      <c r="E99">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100">
+        <v>1198</v>
+      </c>
+      <c r="E100">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101">
+        <v>1198</v>
+      </c>
+      <c r="E101">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102">
         <v>101</v>
       </c>
-      <c r="C4">
+      <c r="B102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102">
+        <v>550</v>
+      </c>
+      <c r="E102">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103">
+        <v>550</v>
+      </c>
+      <c r="E103">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104">
         <v>103</v>
       </c>
-      <c r="D4">
-        <v>1198</v>
-      </c>
-      <c r="E4">
-        <v>554</v>
+      <c r="B104" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104">
+        <v>1198</v>
+      </c>
+      <c r="E104">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105">
+        <v>1198</v>
+      </c>
+      <c r="E105">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106">
+        <v>550</v>
+      </c>
+      <c r="E106">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107">
+        <v>550</v>
+      </c>
+      <c r="E107">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108">
+        <v>1198</v>
+      </c>
+      <c r="E108">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109">
+        <v>1198</v>
+      </c>
+      <c r="E109">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110">
+        <v>550</v>
+      </c>
+      <c r="E110">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111">
+        <v>550</v>
+      </c>
+      <c r="E111">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112">
+        <v>1198</v>
+      </c>
+      <c r="E112">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113">
+        <v>1198</v>
+      </c>
+      <c r="E113">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114">
+        <v>550</v>
+      </c>
+      <c r="E114">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115">
+        <v>550</v>
+      </c>
+      <c r="E115">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116">
+        <v>1198</v>
+      </c>
+      <c r="E116">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117">
+        <v>1198</v>
+      </c>
+      <c r="E117">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118">
+        <v>550</v>
+      </c>
+      <c r="E118">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119">
+        <v>550</v>
+      </c>
+      <c r="E119">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120">
+        <v>1198</v>
+      </c>
+      <c r="E120">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121">
+        <v>1198</v>
+      </c>
+      <c r="E121">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122">
+        <v>550</v>
+      </c>
+      <c r="E122">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123">
+        <v>550</v>
+      </c>
+      <c r="E123">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124">
+        <v>1198</v>
+      </c>
+      <c r="E124">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125">
+        <v>1198</v>
+      </c>
+      <c r="E125">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126">
+        <v>550</v>
+      </c>
+      <c r="E126">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127">
+        <v>550</v>
+      </c>
+      <c r="E127">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128">
+        <v>1198</v>
+      </c>
+      <c r="E128">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129">
+        <v>1198</v>
+      </c>
+      <c r="E129">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130">
+        <v>1198</v>
+      </c>
+      <c r="E130">
+        <v>770</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/CETC/ExcelFile/device_info_machine.xlsx
+++ b/CETC/ExcelFile/device_info_machine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="34">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,19 +81,10 @@
     <t>109</t>
   </si>
   <si>
-    <t>114</t>
-  </si>
-  <si>
     <t>103</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
     <t>104</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,35 +93,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>117</t>
-  </si>
-  <si>
     <t>106</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>118</t>
-  </si>
-  <si>
     <t>107</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>119</t>
-  </si>
-  <si>
     <t>108</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>109</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>121</t>
   </si>
   <si>
     <t>110</t>
@@ -519,7 +495,7 @@
   <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130:E130"/>
+      <selection activeCell="B122" sqref="B122:B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -555,7 +531,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>550</v>
@@ -589,7 +565,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>1198</v>
@@ -606,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>1198</v>
@@ -623,7 +599,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>550</v>
@@ -640,7 +616,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>550</v>
@@ -691,7 +667,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>550</v>
@@ -708,7 +684,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>550</v>
@@ -725,7 +701,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>1198</v>
@@ -742,7 +718,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>1198</v>
@@ -1062,7 +1038,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
@@ -1079,7 +1055,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>9</v>
@@ -1096,7 +1072,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>11</v>
@@ -1113,7 +1089,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>12</v>
@@ -1130,7 +1106,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>13</v>
@@ -1147,7 +1123,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>14</v>
@@ -1164,7 +1140,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>15</v>
@@ -1181,7 +1157,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>16</v>
@@ -1198,7 +1174,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>17</v>
@@ -1215,7 +1191,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
@@ -1232,7 +1208,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>9</v>
@@ -1249,7 +1225,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>11</v>
@@ -1266,7 +1242,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>12</v>
@@ -1283,7 +1259,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>13</v>
@@ -1300,7 +1276,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>14</v>
@@ -1317,7 +1293,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>15</v>
@@ -1334,7 +1310,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>16</v>
@@ -1351,7 +1327,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>17</v>
@@ -1368,7 +1344,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
@@ -1385,7 +1361,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>9</v>
@@ -1402,7 +1378,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>11</v>
@@ -1419,7 +1395,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>12</v>
@@ -1436,7 +1412,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>13</v>
@@ -1453,7 +1429,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>14</v>
@@ -1470,7 +1446,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>15</v>
@@ -1487,7 +1463,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>16</v>
@@ -1504,7 +1480,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>17</v>
@@ -1521,7 +1497,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>8</v>
@@ -1538,7 +1514,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>9</v>
@@ -1555,7 +1531,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>11</v>
@@ -1572,7 +1548,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>12</v>
@@ -1589,7 +1565,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>13</v>
@@ -1606,7 +1582,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>14</v>
@@ -1623,7 +1599,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>15</v>
@@ -1640,7 +1616,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>16</v>
@@ -1657,7 +1633,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>17</v>
@@ -1674,7 +1650,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>8</v>
@@ -1691,7 +1667,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>9</v>
@@ -1708,7 +1684,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>11</v>
@@ -1725,7 +1701,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>12</v>
@@ -1742,7 +1718,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>13</v>
@@ -1759,7 +1735,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>14</v>
@@ -1776,7 +1752,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>15</v>
@@ -1793,7 +1769,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>16</v>
@@ -1810,7 +1786,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>17</v>
@@ -1827,7 +1803,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>8</v>
@@ -1844,7 +1820,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>9</v>
@@ -1861,7 +1837,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>11</v>
@@ -1878,7 +1854,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>12</v>
@@ -1895,7 +1871,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>13</v>
@@ -1912,7 +1888,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>14</v>
@@ -1929,7 +1905,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>15</v>
@@ -1946,7 +1922,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>16</v>
@@ -1963,7 +1939,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>17</v>
@@ -1980,7 +1956,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>8</v>
@@ -1997,7 +1973,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>9</v>
@@ -2014,7 +1990,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>11</v>
@@ -2031,7 +2007,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>12</v>
@@ -2048,7 +2024,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>13</v>
@@ -2065,7 +2041,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>14</v>
@@ -2082,7 +2058,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>15</v>
@@ -2099,7 +2075,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>16</v>
@@ -2116,7 +2092,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>17</v>
@@ -2133,7 +2109,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>8</v>
@@ -2150,7 +2126,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>9</v>
@@ -2167,7 +2143,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>11</v>
@@ -2184,7 +2160,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>12</v>
@@ -2201,7 +2177,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>13</v>
@@ -2218,7 +2194,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>14</v>
@@ -2235,7 +2211,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>15</v>
@@ -2252,7 +2228,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>16</v>
@@ -2269,7 +2245,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>17</v>
@@ -2286,7 +2262,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>8</v>
@@ -2303,7 +2279,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>9</v>
@@ -2320,7 +2296,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>11</v>
@@ -2337,7 +2313,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>12</v>
@@ -2354,7 +2330,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>13</v>
@@ -2371,7 +2347,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>14</v>
@@ -2388,7 +2364,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>15</v>
@@ -2405,7 +2381,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>16</v>
@@ -2422,7 +2398,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>17</v>
@@ -2439,7 +2415,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>8</v>
@@ -2456,7 +2432,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>9</v>
@@ -2473,7 +2449,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>11</v>
@@ -2490,7 +2466,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>12</v>
@@ -2507,7 +2483,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>13</v>
@@ -2524,7 +2500,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>14</v>
@@ -2541,7 +2517,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>15</v>
@@ -2558,7 +2534,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>16</v>
@@ -2575,7 +2551,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>17</v>
@@ -2592,7 +2568,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>8</v>
@@ -2609,7 +2585,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>9</v>
@@ -2626,7 +2602,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>11</v>
@@ -2643,7 +2619,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>12</v>
@@ -2660,7 +2636,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>13</v>
@@ -2677,7 +2653,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>14</v>
@@ -2711,7 +2687,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>16</v>
@@ -2728,7 +2704,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>17</v>
